--- a/biology/Médecine/Chirurgie_thoracique/Chirurgie_thoracique.xlsx
+++ b/biology/Médecine/Chirurgie_thoracique/Chirurgie_thoracique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les affections traitées par la chirurgie thoracique concernent
 les affections chirurgicales de la paroi thoracique
@@ -524,34 +536,275 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cancer du poumon
-Cancers primitifs
-Métastases
-Malformations pulmonaires
-Médiastin
-Pathologies thymiques
-Lésions kystiques
-Chirurgie minimalement invasive
-Chirurgie thoracique vidéo assistée (CTVA) ou (VATS)
+          <t>Cancer du poumon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cancers primitifs
+Métastases</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Actes chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médiastin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pathologies thymiques
+Lésions kystiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Actes chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chirurgie minimalement invasive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chirurgie thoracique vidéo assistée (CTVA) ou (VATS)
 Chirurgie robotique vidéo-assistée (RATS)
-Chirurgie par trocart unique
-Chirurgie pleurale (qui se rapporte à la membrane enveloppant les poumons)
-Pneumothorax
+Chirurgie par trocart unique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Actes chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chirurgie pleurale (qui se rapporte à la membrane enveloppant les poumons)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pneumothorax
 Pleurésie
 Pyothorax
-Mésothéliome pleural malin
-Chirurgie de la trachée
-Tumeurs bénignes et malignes
+Mésothéliome pleural malin</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Actes chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chirurgie de la trachée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tumeurs bénignes et malignes
 Lésions kystiques
-Malformations congénitales
-Chirurgie fonctionnelle de l’hyperhidrose (transpiration excessive)
-Chirurgie du diaphragme
-Éventration
-Hernie
-Chirurgie fonctionnelle de l’insuffisance respiratoire
-Emphysème pulmonaire (gonflement ou une distension du tissu pulmonaire)
-Paroi thoracique
-Fractures de côtes
+Malformations congénitales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Actes chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chirurgie du diaphragme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Éventration
+Hernie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Actes chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chirurgie fonctionnelle de l’insuffisance respiratoire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Emphysème pulmonaire (gonflement ou une distension du tissu pulmonaire)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chirurgie_thoracique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Actes chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Paroi thoracique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fractures de côtes
 Fracture du sternum</t>
         </is>
       </c>
